--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390582.647553483</v>
+        <v>2466112.317218289</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9646701.581308991</v>
+        <v>9646701.581308989</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189.8879378429718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45.24972634440823</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>20.48699093885593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>127.8817283856998</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>360.6700255864636</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>105.0839683962665</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>20.97516701831633</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>77.16235765948234</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>263.046342823992</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>347.5198166822497</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>39.58626266897635</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274063</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>254.3174544694485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>234.9811171250587</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>170.0056798468568</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>109.6778012403077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>243.3629231690982</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>123.6425943953349</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.959642541523644</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701342</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229258</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.14085215535992</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>281.149232483929</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4661256285385</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4266076452309</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>144.0871642186817</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>137.1769970479242</v>
       </c>
       <c r="T37" t="n">
-        <v>182.3495873897215</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>93.24097691005773</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>50.37907584939719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.2724437449544</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1314.38774159731</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>928.5994889990661</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>517.6135842094586</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>99.64977610764549</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1209.912517095719</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.9658229629848</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>210.9658229629848</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>210.9658229629848</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9658229629848</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X4" t="n">
-        <v>210.9658229629848</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9658229629848</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1159.40775858698</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>790.4452416465681</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>432.1795430398176</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>432.1795430398176</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.146930626913</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.007598651101</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>502.0405502269999</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>502.0405502269999</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371767</v>
+        <v>1629.256767270584</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304262</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>411.9186004304262</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>404.9730996812228</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>688.1428602983775</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>688.1428602983775</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>688.1428602983775</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,10 +5117,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
@@ -5133,7 +5135,7 @@
         <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>707.2494241788781</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2494241788781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1912.313820009359</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5422,16 +5424,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,19 +5466,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>726.7810780621004</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>472.0965898562135</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>472.0965898562135</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X16" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y16" t="n">
         <v>244.1070389581962</v>
@@ -5495,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0324822735073</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5706,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1253.095136043662</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>998.4106478377748</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>708.9934778008142</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>708.9934778008142</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4162.087918499594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>4162.087918499594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>4162.087918499594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>4014.174824917201</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4571.72593422785</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>4571.72593422785</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>4571.72593422785</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>4343.736383329833</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4343.736383329833</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>3326.06821056133</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>3633.388343841292</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>3963.250971505325</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>4242.791036724022</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4763.091658459769</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4206.132591937264</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C25" t="n">
-        <v>4037.196409009357</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D25" t="n">
-        <v>4037.196409009357</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4854.834732063258</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4654.914721978811</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.914721978811</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>4654.914721978811</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>4654.914721978811</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>4654.914721978811</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>4426.925171080794</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4206.132591937264</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2227.840212610279</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.862693392488</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.220663094766</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C28" t="n">
-        <v>3774.220663094766</v>
+        <v>927.5390436562263</v>
       </c>
       <c r="D28" t="n">
-        <v>3774.220663094766</v>
+        <v>777.4224042438906</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094766</v>
+        <v>629.5093106614975</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596856</v>
+        <v>482.6193631635927</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>314.4440414834132</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>164.0260330313565</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.650830789677</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>4460.650830789677</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>4176.661707068536</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X28" t="n">
-        <v>4176.661707068536</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y28" t="n">
-        <v>3955.869127925006</v>
+        <v>1278.123691414373</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,13 +6454,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6476,16 +6478,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>638.3691419079764</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4036.934124172603</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C31" t="n">
-        <v>3867.997941244696</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D31" t="n">
-        <v>3867.997941244696</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
-        <v>3867.997941244696</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4485.71625421415</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4485.71625421415</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>4485.71625421415</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X31" t="n">
-        <v>4257.726703316133</v>
+        <v>816.5074119443558</v>
       </c>
       <c r="Y31" t="n">
-        <v>4036.934124172603</v>
+        <v>595.7148328008257</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6691,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3525.606699852205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3832.926833132166</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>4162.789460796199</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4442.329526014896</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4647.352006797106</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.31686937179</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.31686937179</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4404.31686937179</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4404.31686937179</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4404.31686937179</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4404.31686937179</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6935,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.6010158349783</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C37" t="n">
-        <v>545.6648329070714</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D37" t="n">
-        <v>395.5481934947356</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1249.278543838996</v>
       </c>
       <c r="T37" t="n">
-        <v>1003.72965462142</v>
+        <v>1249.278543838996</v>
       </c>
       <c r="U37" t="n">
-        <v>714.6010158349783</v>
+        <v>960.1499050525547</v>
       </c>
       <c r="V37" t="n">
-        <v>714.6010158349783</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="W37" t="n">
-        <v>714.6010158349783</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="X37" t="n">
-        <v>714.6010158349783</v>
+        <v>705.4654168466678</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.6010158349783</v>
+        <v>705.4654168466678</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7153,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3961.879377164627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3961.879377164627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3811.762737752292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4660.934562929845</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4660.934562929845</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4371.517392892884</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>4143.527841994867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4143.527841994867</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372323</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>3079.144181652285</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>3883.555759916435</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>4163.095825135132</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>4683.396446870879</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>445.4130028136844</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>445.4130028136844</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>298.5230553157741</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>298.5230553157741</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>148.1050468637173</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,67 +7633,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2771.824048372323</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>3540.192194764784</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>4081.182609697672</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>4360.722674916369</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>696.5850465240057</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X46" t="n">
-        <v>696.5850465240057</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y46" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8781,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>43.65987261462453</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>169.2863157167174</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.6241510367944</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.6461250100638</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>213.2603911806615</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>32.20554386714247</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>51.2562352735186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>48.57897350523797</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.56901985832016</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>42.87442922947915</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>21.77845362759639</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368787</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>104.0047098622691</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,10 +24423,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891204</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,13 +24657,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>5.373765852661961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>112.7712267700389</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>34.28304774380624</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>77.46039683970756</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.74381293567907</v>
       </c>
       <c r="T37" t="n">
-        <v>39.19797366866774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>53.19298573651145</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>60.04016961487479</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.55953643698285</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585981</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585985</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
@@ -26329,19 +26331,19 @@
         <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="K2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
@@ -26350,10 +26352,10 @@
         <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196782</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26436,13 +26438,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.6075868707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687074</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128735</v>
+        <v>-243204.5419128737</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.337301671</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.3373016707</v>
+        <v>346763.3373016708</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280538</v>
+        <v>-72329.83339280548</v>
       </c>
       <c r="F6" t="n">
         <v>452830.2030840908</v>
@@ -26537,31 +26539,31 @@
         <v>452830.2030840907</v>
       </c>
       <c r="H6" t="n">
+        <v>452830.2030840905</v>
+      </c>
+      <c r="I6" t="n">
+        <v>452830.203084091</v>
+      </c>
+      <c r="J6" t="n">
+        <v>276406.9838914977</v>
+      </c>
+      <c r="K6" t="n">
         <v>452830.2030840908</v>
       </c>
-      <c r="I6" t="n">
-        <v>452830.2030840906</v>
-      </c>
-      <c r="J6" t="n">
-        <v>276406.9838914975</v>
-      </c>
-      <c r="K6" t="n">
-        <v>452830.2030840905</v>
-      </c>
       <c r="L6" t="n">
-        <v>452830.2030840907</v>
+        <v>452830.2030840911</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502534</v>
+        <v>318029.1878502533</v>
       </c>
       <c r="N6" t="n">
         <v>452830.2030840907</v>
       </c>
       <c r="O6" t="n">
+        <v>452830.2030840904</v>
+      </c>
+      <c r="P6" t="n">
         <v>452830.203084091</v>
-      </c>
-      <c r="P6" t="n">
-        <v>452830.2030840904</v>
       </c>
     </row>
   </sheetData>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.8459038205088</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>278.6730464199489</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>124.9340570840753</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>124.2559149381282</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>46.20602015524787</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>146.1401991120228</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6900249618415</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>209.3606406771087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>91.63669879669095</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>66.26435333854528</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>246.9367356676146</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-9.600857732455279e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29442,7 +29444,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.467389504095384e-12</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35501,10 +35503,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>326.0235748557327</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>418.5440206727417</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.6371838218685</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>215.6591577951379</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37633,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>693.6972596887384</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>546.4549645786744</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2466112.317218289</v>
+        <v>2459095.302326578</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9646701.581308989</v>
+        <v>9646701.581308991</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>239.0563475847725</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>45.24972634440823</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>127.8817283856998</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.92041677519579</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>41.37978423874366</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>105.0839683962665</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>6.837139712981733</v>
       </c>
       <c r="R7" t="n">
-        <v>20.97516701831633</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>263.046342823992</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>130.8251764553485</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>149.0799667719505</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>59.48755732533316</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.0056798468568</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>243.3629231690982</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>216.4586446023291</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229258</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.14085215535992</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>191.4266076452309</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>137.1769970479242</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.37907584939719</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.38774159731</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="C2" t="n">
-        <v>1314.38774159731</v>
+        <v>821.0691186598713</v>
       </c>
       <c r="D2" t="n">
-        <v>1314.38774159731</v>
+        <v>462.8034200531208</v>
       </c>
       <c r="E2" t="n">
-        <v>928.5994889990661</v>
+        <v>462.8034200531208</v>
       </c>
       <c r="F2" t="n">
-        <v>517.6135842094586</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>99.64977610764549</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1597.808290699805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.38774159731</v>
+        <v>1207.668958723993</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>569.538602044198</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>569.538602044198</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>569.538602044198</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>847.844772492695</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>847.844772492695</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>840.8992717434916</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>422.9354636416784</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>95.74074367768128</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2535.974978926224</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.974978926224</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.974978926224</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.974978926224</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>721.2227824761496</v>
       </c>
       <c r="R7" t="n">
-        <v>677.5250276678174</v>
+        <v>721.2227824761496</v>
       </c>
       <c r="S7" t="n">
-        <v>463.2366044859801</v>
+        <v>721.2227824761496</v>
       </c>
       <c r="T7" t="n">
-        <v>235.9284171545819</v>
+        <v>721.2227824761496</v>
       </c>
       <c r="U7" t="n">
-        <v>235.9284171545819</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V7" t="n">
-        <v>235.9284171545819</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W7" t="n">
-        <v>235.9284171545819</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1998.219284210995</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1629.256767270584</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.219284210995</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321494</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198136</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374205</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824581</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824581</v>
       </c>
     </row>
     <row r="14">
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>244.1070389581962</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1438.827828815142</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1438.827828815142</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1438.827828815142</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>1184.143340609255</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924326</v>
+        <v>894.726170572294</v>
       </c>
       <c r="X16" t="n">
-        <v>415.8299478944152</v>
+        <v>894.726170572294</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.1070389581962</v>
+        <v>673.9335914287639</v>
       </c>
     </row>
     <row r="17">
@@ -5497,43 +5497,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.095136043662</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V19" t="n">
-        <v>998.4106478377748</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>708.9934778008142</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>708.9934778008142</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>708.9934778008142</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6220,58 +6220,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>927.5390436562263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>777.4224042438906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>629.5093106614975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6193631635927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>314.4440414834132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>164.0260330313565</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.123691414373</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.867621687013</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>816.5074119443558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.7148328008257</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7016,19 +7016,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>523.8169520164281</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C37" t="n">
-        <v>523.8169520164281</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D37" t="n">
-        <v>523.8169520164281</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1249.278543838996</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1249.278543838996</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>960.1499050525547</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>705.4654168466678</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>705.4654168466678</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>705.4654168466678</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y37" t="n">
-        <v>705.4654168466678</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7183,16 +7183,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7371,7 +7371,7 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>445.4130028136844</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>445.4130028136844</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>298.5230553157741</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>298.5230553157741</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1050468637173</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W43" t="n">
-        <v>1044.311772267568</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X43" t="n">
-        <v>816.3222213695503</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y43" t="n">
-        <v>595.5296422260202</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>18.16685432667734</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.4332526582701</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.57897350523797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.87442922947915</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>9.251010786708008</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>90.96703739368787</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>44.27839330891204</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>34.28304774380624</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>60.74381293567907</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>176.3280338692828</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>60.04016961487479</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822996.3863585985</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="H2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196783</v>
       </c>
       <c r="J2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,10 +26441,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>22174.60758687076</v>
+      </c>
+      <c r="K4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128737</v>
+        <v>-243204.5419128736</v>
       </c>
       <c r="C6" t="n">
-        <v>346763.3373016709</v>
+        <v>346763.337301671</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.3373016708</v>
+        <v>346763.337301671</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280548</v>
+        <v>-73304.42465252681</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243689</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840905</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="J6" t="n">
-        <v>276406.9838914977</v>
+        <v>275432.3926317761</v>
       </c>
       <c r="K6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="L6" t="n">
-        <v>452830.2030840911</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502533</v>
+        <v>317054.5965905319</v>
       </c>
       <c r="N6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="O6" t="n">
-        <v>452830.2030840904</v>
+        <v>451855.6118243689</v>
       </c>
       <c r="P6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.611824369</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>167.819698156939</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>278.6730464199489</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>124.2559149381282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7892386138414</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>110.5515320061176</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.1401991120228</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.28561024193257</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6900249618415</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>91.63669879669095</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>190.7623767421579</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>14.59587156758278</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>62.69861478456104</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29283,10 +29283,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-9.600857732455279e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29444,7 +29444,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.467389504095384e-12</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459095.302326578</v>
+        <v>2464034.565175609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9646701.581308991</v>
+        <v>9646701.581308989</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.0563475847725</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>9.702759483543995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>6.596015618368514</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>20.92041677519579</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>10.61951538241785</v>
       </c>
       <c r="I5" t="n">
-        <v>41.37978423874366</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>80.97347500494082</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.837139712981733</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613138</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.2644881507953</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>130.8251764553485</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>149.0799667719505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229269</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>61.75790661596177</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.48755732533316</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>130.4966170451648</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3965091869248</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>212.9633354695337</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>216.4586446023291</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335946075</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>207.6951870029948</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>49.38162151975434</v>
+        <v>31.13654107019724</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>211.4593910168946</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.6519788371605</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425565</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821.0691186598713</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>821.0691186598713</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>462.8034200531208</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>462.8034200531208</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2687.348323863127</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.808290699805</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y2" t="n">
-        <v>1207.668958723993</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>721.4663421676781</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4549,19 +4549,19 @@
         <v>847.844772492695</v>
       </c>
       <c r="D5" t="n">
-        <v>847.844772492695</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="E5" t="n">
-        <v>847.844772492695</v>
+        <v>489.5790738859445</v>
       </c>
       <c r="F5" t="n">
-        <v>840.8992717434916</v>
+        <v>482.6335731367411</v>
       </c>
       <c r="G5" t="n">
-        <v>422.9354636416784</v>
+        <v>64.66976503492793</v>
       </c>
       <c r="H5" t="n">
-        <v>95.74074367768128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>721.2227824761496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>721.2227824761496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>721.2227824761496</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>721.2227824761496</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>432.0491721307175</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>432.0491721307175</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>432.0491721307175</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
         <v>74.81188663097703</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600563</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321494</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198136</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374205</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600563</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262063</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.8029164824581</v>
+        <v>711.0729548808276</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529208</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.020132540585</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581919</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609662</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240055</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259882</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.8029164824581</v>
+        <v>892.7214197110674</v>
       </c>
     </row>
     <row r="14">
@@ -5275,46 +5275,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>673.9335914287639</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>673.9335914287639</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1438.827828815142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1438.827828815142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1438.827828815142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1184.143340609255</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W16" t="n">
-        <v>894.726170572294</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X16" t="n">
-        <v>894.726170572294</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>673.9335914287639</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1283.801790285647</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>994.3846202486859</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>766.3950693506686</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536188989</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>709.4512536188989</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6387,28 +6387,28 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1382.222354598086</v>
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,64 +6925,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775518</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X37" t="n">
-        <v>392.0201325405893</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>392.0201325405893</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,49 +7153,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7420,13 +7420,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688073</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1375.025382843599</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1151.239967633105</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>318.009670603816</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,16 +7715,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126483</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735881</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978231</v>
+        <v>288.4091825776742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>18.16685432667734</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>156.826746736133</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4332526582701</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23712,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>121.6410262786632</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>48.84084321165253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.17430785429428</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>9.251010786708008</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>192.8130786476572</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>18.01446838604235</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,10 +25320,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>176.3280338692828</v>
+        <v>194.5731143188399</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>10.08817004149461</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>75.26883114644278</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585984</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585982</v>
+        <v>822996.3863585981</v>
       </c>
     </row>
     <row r="8">
@@ -26319,40 +26319,40 @@
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.136619678</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338375</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26453,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243204.5419128736</v>
+        <v>-243204.5419128735</v>
       </c>
       <c r="C6" t="n">
         <v>346763.337301671</v>
       </c>
       <c r="D6" t="n">
-        <v>346763.337301671</v>
+        <v>346763.3373016709</v>
       </c>
       <c r="E6" t="n">
-        <v>-73304.42465252681</v>
+        <v>-72427.29251877803</v>
       </c>
       <c r="F6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="G6" t="n">
-        <v>451855.6118243689</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="H6" t="n">
-        <v>451855.6118243692</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="I6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581183</v>
       </c>
       <c r="J6" t="n">
-        <v>275432.3926317761</v>
+        <v>276309.5247655254</v>
       </c>
       <c r="K6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581189</v>
       </c>
       <c r="L6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581187</v>
       </c>
       <c r="M6" t="n">
-        <v>317054.5965905319</v>
+        <v>317931.7287242809</v>
       </c>
       <c r="N6" t="n">
-        <v>451855.6118243691</v>
+        <v>452732.7439581182</v>
       </c>
       <c r="O6" t="n">
-        <v>451855.6118243689</v>
+        <v>452732.7439581184</v>
       </c>
       <c r="P6" t="n">
-        <v>451855.611824369</v>
+        <v>452732.7439581185</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.819698156939</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.7455608741138</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>218.4390898397158</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>204.7892386138414</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>313.3032573819393</v>
       </c>
       <c r="I5" t="n">
-        <v>110.5515320061176</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>98.85850517699647</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.28561024193257</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421579</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.97345050525826</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.59587156758278</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>204.0577749647631</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28259,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.134587103528612e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,31 +33113,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34380,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34401,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34529,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34541,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586621</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958066</v>
+        <v>537.6668875336986</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38028,19 +38028,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38107,16 +38107,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
